--- a/biology/Zoologie/Dipodillus/Dipodillus.xlsx
+++ b/biology/Zoologie/Dipodillus/Dipodillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodillus est un genre de gerbilles qui fait partie des rongeurs de la famille des Muridés. 
 </t>
@@ -511,12 +523,14 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique des noms vernaculaires attestés en français.
 Note : les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Petite gerbille à queue courte - Dipodillus (Dipodillus) simoni[1]
-Gerbille de Wagner - Dipodillus (Petteromys) dasyurus[2]</t>
+Petite gerbille à queue courte - Dipodillus (Dipodillus) simoni
+Gerbille de Wagner - Dipodillus (Petteromys) dasyurus</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2016)[3] et ITIS      (31 mai 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2016) et ITIS      (31 mai 2016) :
 sous-genre Dipodillus (Dipodillus) Lataste, 1881
 Dipodillus maghrebi (Schlitter and Setzer, 1972)
 Dipodillus simoni (Lataste, 1881)
@@ -562,7 +578,7 @@
 Dipodillus rupicola (Granjon, Aniskin, Volobouev and Sicard, 2002)
 Dipodillus somalicus(Thomas, 1910)
 Dipodillus stigmonyx (Heuglin, 1877)
-Selon NCBI  (31 mai 2016)[5] :
+Selon NCBI  (31 mai 2016) :
 Dipodillus campestris
 Dipodillus dasyurus
 Dipodillus rupicola
